--- a/ROBOTS.INDUSTRIALES/PROYECTO/PRESUPUESTO.xlsx
+++ b/ROBOTS.INDUSTRIALES/PROYECTO/PRESUPUESTO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd5932089743e351/6°/ROBOTS.INDUSTRIALES/PROYECTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BB83C5-00E3-4735-93DA-DD04CA55470C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{A0BB83C5-00E3-4735-93DA-DD04CA55470C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{380395B0-4151-45A6-BDD1-FF4548BAAC37}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{957FD75A-F01C-43D7-AB81-3F4608DC8045}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>PRECIO UNITARIO</t>
   </si>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>NOMBRE DE LA PIEZA</t>
+  </si>
+  <si>
+    <t>motor eléctrico</t>
+  </si>
+  <si>
+    <t>simotics</t>
+  </si>
+  <si>
+    <t>1hp a 440v</t>
+  </si>
+  <si>
+    <t>cable 18AWG</t>
+  </si>
+  <si>
+    <t>steren</t>
+  </si>
+  <si>
+    <t>60 metros</t>
+  </si>
+  <si>
+    <t>pulsador de marcha</t>
+  </si>
+  <si>
+    <t>pulsador de paro</t>
   </si>
 </sst>
 </file>
@@ -122,11 +146,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DBCFAC-339F-488F-BED4-96279DDB37CA}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,10 +486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -482,15 +506,62 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3381</v>
+      </c>
+      <c r="E3">
+        <v>3381</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>720</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
